--- a/FROM BIM MASTER TEMP 210412/Python/py_logistic/configures/configure.xlsx
+++ b/FROM BIM MASTER TEMP 210412/Python/py_logistic/configures/configure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\cofico\cofico\FROM BIM MASTER TEMP 210412\Python\py_logistic\configures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C24CB38-98FD-44C6-B774-2DC024CCC429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0390ED61-C130-430A-8031-9ABF53A1FE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" activeTab="1" xr2:uid="{3E00DBEC-7437-4FBE-AFCB-A70E2693A467}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="18510" windowHeight="9060" xr2:uid="{3E00DBEC-7437-4FBE-AFCB-A70E2693A467}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="8" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="data_selector" sheetId="3" r:id="rId3"/>
     <sheet name="data_builder" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">program!$A$1:$I$56</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -267,165 +270,6 @@
 Các loại dữ liệu bao gồm [Danh mục] VTTV VTTB [Tồn kho] và [Tổng hợp]</t>
   </si>
   <si>
-    <t>1 [Tra cứu] Vật tư thiết bị - VTTB</t>
-  </si>
-  <si>
-    <t>1.0 Tra cứu [Danh mục] VTTB - Theo từ khóa + [Xuất dữ liệu](.txt, .xls, .csv, .json)</t>
-  </si>
-  <si>
-    <t>1.0.0 [Xuất dữ liệu] Toàn bộ [Danh mục] VTTB (.txt, .xls, .csv, .json)</t>
-  </si>
-  <si>
-    <t>1.0.1 Tra cứu [Chi tiết] [Danh mục] VTTB - Theo [Mã số chủng loại]</t>
-  </si>
-  <si>
-    <t>1.0.2 Tra cứu [Chi tiết] [Danh mục] VTTB - Theo Chỉ số [Hàng]</t>
-  </si>
-  <si>
-    <t>1.0.3 Tra cứu [Chi tiết] [Danh mục] VTTB - Theo Chỉ số [Hàng] + [Tên cột]</t>
-  </si>
-  <si>
-    <t>1.1 Tra cứu VTTB [Tồn kho]</t>
-  </si>
-  <si>
-    <t>1.1.0 [Xuất dữ liệu] VTTB [Tồn kho] (.txt, .xls, .csv, .json)</t>
-  </si>
-  <si>
-    <t>1.1.1 [Tra cứu] VTTB [Tồn kho]</t>
-  </si>
-  <si>
-    <t>1.1.2 [Tra cứu] VTTB [Tồn kho] - Theo [Mã số chủng loại]</t>
-  </si>
-  <si>
-    <t>1.1.3 [Tra cứu] VTTB [Tồn kho] - Theo [Nội dung]</t>
-  </si>
-  <si>
-    <t>1.2 Tra cứu [KẾ HOẠCH] VTTB</t>
-  </si>
-  <si>
-    <t>1.2.0 [Xuất dữ liệu] [Kế hoạch] VTTB (.txt, .xls, .csv, .json)</t>
-  </si>
-  <si>
-    <t>1.2.1 [Tra cứu] [Kế hoạch] VTTB</t>
-  </si>
-  <si>
-    <t>1.2.2 [Tra cứu] [Kế hoạch] VTTB - Theo [Mã số chủng loại]</t>
-  </si>
-  <si>
-    <t>1.2.3 [Tra cứu] [Kế hoạch] VTTB - Theo [Nội dung]</t>
-  </si>
-  <si>
-    <t>1.3 [Sưu tập] Mã VTTB</t>
-  </si>
-  <si>
-    <t>1.3.1 [Xuất dữ liệu] Bộ sưu tập (.txt, .xls, .csv, .json)</t>
-  </si>
-  <si>
-    <t>1.4 Tra cứu [Danh mục] VTTB [TỔNG HỢP]</t>
-  </si>
-  <si>
-    <t>2 [Catalog] Chi tiết VTTB</t>
-  </si>
-  <si>
-    <t>2.1 Xem [Catalog] Chi tiết VTTB - Theo Chỉ số [Hàng]</t>
-  </si>
-  <si>
-    <t>2.2 Xem [Catalog] Chi tiết VTTB - Theo Chỉ số [Hàng] + [Tên cột]</t>
-  </si>
-  <si>
-    <t>2.4 Xuất [Catalog] VTTB (.html /.pdf)</t>
-  </si>
-  <si>
-    <t>3 [Lập Phiếu/ Kế hoạch vận tải] VTTB</t>
-  </si>
-  <si>
-    <t>3.0 Lập [Kế hoạch vận tải] VTTB</t>
-  </si>
-  <si>
-    <t>3.1 Lập [Phiếu Yêu cầu] VTTB</t>
-  </si>
-  <si>
-    <t>3.2 Lập [Phiếu Xuất] VTTB</t>
-  </si>
-  <si>
-    <t>3.3 Lập [Phiếu Nhập] VTTB</t>
-  </si>
-  <si>
-    <t>3.4 Lập [Phiếu Vận tải] VTTB</t>
-  </si>
-  <si>
-    <t>3.5 Lập [Phiếu Giao nhận] VTTB</t>
-  </si>
-  <si>
-    <t>3.6 Lập [Hóa đơn /Biên lai]</t>
-  </si>
-  <si>
-    <t>4 [Xét duyệt] Phiếu VTTB</t>
-  </si>
-  <si>
-    <t>4.0 Duyệt [Kế hoạch vận tải] VTTB</t>
-  </si>
-  <si>
-    <t>4.1 Duyệt [Phiếu Yêu cầu] VTTB</t>
-  </si>
-  <si>
-    <t>4.2 Duyệt [Phiếu Xuất] VTTB</t>
-  </si>
-  <si>
-    <t>4.3 Duyệt [Phiếu Nhập] VTTB</t>
-  </si>
-  <si>
-    <t>4.4 Duyệt [Phiếu Vận tải] VTTB</t>
-  </si>
-  <si>
-    <t>4.5 Duyệt [Phiếu Giao nhận] VTTB</t>
-  </si>
-  <si>
-    <t>5 Quản lí [Hồ sơ] Logistic VTTB</t>
-  </si>
-  <si>
-    <t>5.1 Quản lí [Kế hoạch] VTTB + Vật tải</t>
-  </si>
-  <si>
-    <t>5.2 Quản lí [Phiếu] yêu cầu / Xuất / Nhập / Vận tải + [Hóa đơn /Biên lai]</t>
-  </si>
-  <si>
-    <t>7 Quản lí [Dữ liệu] VTTB</t>
-  </si>
-  <si>
-    <t>7.1 [Xem] toàn bộ [Dữ liệu VTTB]: [Danh mục] + [Tra cứu] VTTB + [Tồn kho]</t>
-  </si>
-  <si>
-    <t>7.2 [Biên tập / Cập nhật] dữ liệu VTTB: [Danh mục] + [Tra cứu] + [Tồn kho]</t>
-  </si>
-  <si>
-    <t>7.3 Cập nhật Dữ liệu VTTB [Tổng hợp] = Hợp nhất [Danh mục] + [Tồn kho]</t>
-  </si>
-  <si>
-    <t>7.4 Lựa chọn TOP các VTTB có thể đáp ứng Logistic</t>
-  </si>
-  <si>
-    <t>8 [Xử lí/ Phân tích] dữ liệu:</t>
-  </si>
-  <si>
-    <t>8.1 [Xử lí] dữ liệu [Kế hoạch] VTTB</t>
-  </si>
-  <si>
-    <t>8.2 [Phân tích] / Báo cáo dữ liệu</t>
-  </si>
-  <si>
-    <t>8.3 Quản lí [Top/Trench VTTB] có thể đáp ứng Logistic</t>
-  </si>
-  <si>
-    <t>QQ [Thoát] chương trình</t>
-  </si>
-  <si>
-    <t>MN Trở lại [Menu chính]</t>
-  </si>
-  <si>
-    <t>ZZ [Khởi động] lại Chương trình"""</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -451,6 +295,165 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Tra cứu [Danh mục] VTTB - Theo từ khóa + [Xuất dữ liệu](.txt, .xls, .csv, .json)</t>
+  </si>
+  <si>
+    <t>[Xuất dữ liệu] Toàn bộ [Danh mục] VTTB (.txt, .xls, .csv, .json)</t>
+  </si>
+  <si>
+    <t>Tra cứu [Chi tiết] [Danh mục] VTTB - Theo [Mã số chủng loại]</t>
+  </si>
+  <si>
+    <t>Tra cứu [Chi tiết] [Danh mục] VTTB - Theo Chỉ số [Hàng]</t>
+  </si>
+  <si>
+    <t>Tra cứu [Chi tiết] [Danh mục] VTTB - Theo Chỉ số [Hàng] + [Tên cột]</t>
+  </si>
+  <si>
+    <t>Tra cứu VTTB [Tồn kho]</t>
+  </si>
+  <si>
+    <t>[Xuất dữ liệu] VTTB [Tồn kho] (.txt, .xls, .csv, .json)</t>
+  </si>
+  <si>
+    <t>[Tra cứu] VTTB [Tồn kho]</t>
+  </si>
+  <si>
+    <t>[Tra cứu] VTTB [Tồn kho] - Theo [Mã số chủng loại]</t>
+  </si>
+  <si>
+    <t>[Tra cứu] VTTB [Tồn kho] - Theo [Nội dung]</t>
+  </si>
+  <si>
+    <t>Tra cứu [KẾ HOẠCH] VTTB</t>
+  </si>
+  <si>
+    <t>[Xuất dữ liệu] [Kế hoạch] VTTB (.txt, .xls, .csv, .json)</t>
+  </si>
+  <si>
+    <t>[Tra cứu] [Kế hoạch] VTTB</t>
+  </si>
+  <si>
+    <t>[Tra cứu] [Kế hoạch] VTTB - Theo [Mã số chủng loại]</t>
+  </si>
+  <si>
+    <t>[Tra cứu] [Kế hoạch] VTTB - Theo [Nội dung]</t>
+  </si>
+  <si>
+    <t>[Sưu tập] Mã VTTB</t>
+  </si>
+  <si>
+    <t>[Xuất dữ liệu] Bộ sưu tập (.txt, .xls, .csv, .json)</t>
+  </si>
+  <si>
+    <t>Tra cứu [Danh mục] VTTB [TỔNG HỢP]</t>
+  </si>
+  <si>
+    <t>[Catalog] Chi tiết VTTB</t>
+  </si>
+  <si>
+    <t>Xem [Catalog] Chi tiết VTTB - Theo Chỉ số [Hàng]</t>
+  </si>
+  <si>
+    <t>Xem [Catalog] Chi tiết VTTB - Theo Chỉ số [Hàng] + [Tên cột]</t>
+  </si>
+  <si>
+    <t>Xuất [Catalog] VTTB (.html /.pdf)</t>
+  </si>
+  <si>
+    <t>[Lập Phiếu/ Kế hoạch vận tải] VTTB</t>
+  </si>
+  <si>
+    <t>Lập [Kế hoạch vận tải] VTTB</t>
+  </si>
+  <si>
+    <t>Lập [Phiếu Yêu cầu] VTTB</t>
+  </si>
+  <si>
+    <t>Lập [Phiếu Xuất] VTTB</t>
+  </si>
+  <si>
+    <t>Lập [Phiếu Nhập] VTTB</t>
+  </si>
+  <si>
+    <t>Lập [Phiếu Vận tải] VTTB</t>
+  </si>
+  <si>
+    <t>Lập [Phiếu Giao nhận] VTTB</t>
+  </si>
+  <si>
+    <t>Lập [Hóa đơn /Biên lai]</t>
+  </si>
+  <si>
+    <t>[Xét duyệt] Phiếu VTTB</t>
+  </si>
+  <si>
+    <t>Duyệt [Kế hoạch vận tải] VTTB</t>
+  </si>
+  <si>
+    <t>Duyệt [Phiếu Yêu cầu] VTTB</t>
+  </si>
+  <si>
+    <t>Duyệt [Phiếu Xuất] VTTB</t>
+  </si>
+  <si>
+    <t>Duyệt [Phiếu Nhập] VTTB</t>
+  </si>
+  <si>
+    <t>Duyệt [Phiếu Vận tải] VTTB</t>
+  </si>
+  <si>
+    <t>Duyệt [Phiếu Giao nhận] VTTB</t>
+  </si>
+  <si>
+    <t>Quản lí [Hồ sơ] Logistic VTTB</t>
+  </si>
+  <si>
+    <t>Quản lí [Kế hoạch] VTTB + Vật tải</t>
+  </si>
+  <si>
+    <t>Quản lí [Phiếu] yêu cầu / Xuất / Nhập / Vận tải + [Hóa đơn /Biên lai]</t>
+  </si>
+  <si>
+    <t>Quản lí [Dữ liệu] VTTB</t>
+  </si>
+  <si>
+    <t>[Xem] toàn bộ [Dữ liệu VTTB]: [Danh mục] + [Tra cứu] VTTB + [Tồn kho]</t>
+  </si>
+  <si>
+    <t>[Biên tập / Cập nhật] dữ liệu VTTB: [Danh mục] + [Tra cứu] + [Tồn kho]</t>
+  </si>
+  <si>
+    <t>Cập nhật Dữ liệu VTTB [Tổng hợp] = Hợp nhất [Danh mục] + [Tồn kho]</t>
+  </si>
+  <si>
+    <t>Lựa chọn TOP các VTTB có thể đáp ứng Logistic</t>
+  </si>
+  <si>
+    <t>[Xử lí/ Phân tích] dữ liệu:</t>
+  </si>
+  <si>
+    <t>[Xử lí] dữ liệu [Kế hoạch] VTTB</t>
+  </si>
+  <si>
+    <t>[Phân tích] / Báo cáo dữ liệu</t>
+  </si>
+  <si>
+    <t>Quản lí [Top/Trench VTTB] có thể đáp ứng Logistic</t>
+  </si>
+  <si>
+    <t>[Tra cứu] Vật tư thiết bị - VTTB</t>
+  </si>
+  <si>
+    <t>[Thoát] chương trình</t>
+  </si>
+  <si>
+    <t>Trở lại [Menu chính]</t>
+  </si>
+  <si>
+    <t>[Khởi động] lại Chương trình"""</t>
   </si>
 </sst>
 </file>
@@ -891,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7693B03D-8054-40DF-8813-5FCA4CE35E6C}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +923,7 @@
         <v>55</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>51</v>
@@ -980,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1000,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1020,7 +1023,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1040,7 +1043,7 @@
         <v>101</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1060,7 +1063,7 @@
         <v>102</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1080,7 +1083,7 @@
         <v>103</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1100,7 +1103,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1110,7 +1113,7 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>0</v>
@@ -1120,7 +1123,7 @@
         <v>110</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1130,7 +1133,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>3</v>
@@ -1140,7 +1143,7 @@
         <v>111</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1150,7 +1153,7 @@
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>6</v>
@@ -1160,7 +1163,7 @@
         <v>112</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1170,7 +1173,7 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>8</v>
@@ -1180,7 +1183,7 @@
         <v>113</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1200,7 +1203,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1210,7 +1213,7 @@
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>0</v>
@@ -1220,7 +1223,7 @@
         <v>120</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1230,7 +1233,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>3</v>
@@ -1240,7 +1243,7 @@
         <v>121</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1250,7 +1253,7 @@
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>6</v>
@@ -1260,7 +1263,7 @@
         <v>122</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1270,7 +1273,7 @@
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>8</v>
@@ -1280,7 +1283,7 @@
         <v>123</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1300,7 +1303,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1310,7 +1313,7 @@
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>3</v>
@@ -1320,7 +1323,7 @@
         <v>131</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1340,7 +1343,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1355,7 +1358,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1375,7 +1378,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1395,7 +1398,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1415,7 +1418,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1430,7 +1433,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1450,7 +1453,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1470,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1490,7 +1493,7 @@
         <v>32</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1510,7 +1513,7 @@
         <v>33</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1530,7 +1533,7 @@
         <v>34</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1550,7 +1553,7 @@
         <v>35</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1570,7 +1573,7 @@
         <v>36</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1585,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1605,7 +1608,7 @@
         <v>40</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1625,7 +1628,7 @@
         <v>41</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1645,7 +1648,7 @@
         <v>42</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1665,7 +1668,7 @@
         <v>43</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1685,7 +1688,7 @@
         <v>44</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1705,7 +1708,7 @@
         <v>45</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1720,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1740,7 +1743,7 @@
         <v>51</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1760,7 +1763,7 @@
         <v>52</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1775,7 +1778,7 @@
         <v>18</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1795,7 +1798,7 @@
         <v>71</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1815,7 +1818,7 @@
         <v>72</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1835,7 +1838,7 @@
         <v>73</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1855,7 +1858,7 @@
         <v>74</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1870,7 +1873,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1890,7 +1893,7 @@
         <v>81</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1910,7 +1913,7 @@
         <v>82</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1930,7 +1933,7 @@
         <v>83</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -1942,10 +1945,10 @@
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -1957,10 +1960,10 @@
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -1972,10 +1975,10 @@
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1984,6 +1987,7 @@
       <c r="I56" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I56" xr:uid="{7693B03D-8054-40DF-8813-5FCA4CE35E6C}"/>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
@@ -1996,7 +2000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D30561-3A3C-408D-8BC5-30B071E4A94D}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -2027,7 +2031,7 @@
         <v>55</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>51</v>
@@ -2409,7 +2413,7 @@
         <v>55</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>51</v>
@@ -2583,7 +2587,7 @@
         <v>55</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>51</v>
@@ -2766,10 +2770,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>2</v>
